--- a/medicine/Pharmacie/Classe_ATC_S01/Classe_ATC_S01.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_S01/Classe_ATC_S01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC S01, dénommée « Médicaments ophtalmologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique S de la classification, intitulé « Organes sensoriels ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC S01, dénommée « Médicaments ophtalmologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique S de la classification, intitulé « Organes sensoriels ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S01AA Antibiotiques
-S01AA01 Chloramphénicol
+          <t>S01AA Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S01AA01 Chloramphénicol
 S01AA02 Chlortétracycline
 S01AA03 Néomycine
 S01AA04 Oxytétracycline
@@ -540,33 +557,169 @@
 S01AA26 Azithromycine
 S01AA27 Céfuroxime
 S01AA30 Associations de différents antibiotiques
-QS01AA90 Cloxacilline
-S01AB Sulfamides
-S01AB01 Sulfamétizol (en)
+QS01AA90 Cloxacilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S01A Anti-infectieux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S01AB Sulfamides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S01AB01 Sulfamétizol (en)
 S01AB02 Sulfafurazol (en)
 S01AB03 Sulfadicramide (en)
 S01AB04 Sulfacétamide
-S01AB05 Sulfafénazol (en)
-S01AD Antiviraux
-S01AD01 Idoxuridine (en)
+S01AB05 Sulfafénazol (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>S01A Anti-infectieux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S01AD Antiviraux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S01AD01 Idoxuridine (en)
 S01AD02 TrifluridineTrifluridine
 S01AD03 Aciclovir
 S01AD05 Interféron
 S01AD06 Vidarabine (en)
 S01AD07 Famciclovir
 S01AD08 Fomivirsen
-S01AD09 Ganciclovir
-S01AE Fluoroquinolones
-S01AE01 Ofloxacine
+S01AD09 Ganciclovir</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>S01A Anti-infectieux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S01AE Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S01AE01 Ofloxacine
 S01AE02 Norfloxacine
 S01AE03 Ciprofloxacine
 S01AE04 Loméfloxacine
 S01AE05 Lévofloxacine
 S01AE06 Gatifloxacine
 S01AE07 Moxifloxacine
-S01AE08 Bésifloxacine (en)
-S01AX Autres anti-infectieux
-S01AX01 Composés mercuriels
+S01AE08 Bésifloxacine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>S01A Anti-infectieux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S01AX Autres anti-infectieux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S01AX01 Composés mercuriels
 S01AX02 Composés argentiques
 S01AX03 Composés zincifères
 S01AX04 Nitrofural (en)
@@ -583,34 +736,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>S01B Anti-inflammatoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>S01BA Corticoïdes non associés
-S01BA01 Dexaméthasone
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S01BA Corticoïdes non associés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>S01BA01 Dexaméthasone
 S01BA02 Hydrocortisone
 S01BA03 Cortisone
 S01BA04 Prednisolone
@@ -624,14 +782,82 @@
 S01BA12 Formocortal (en)
 S01BA13 Rimexolone
 S01BA14 Lotéprednol (en)
-S01BA15 Acétonide de fluocinolone (en)
-S01BB Corticoïdes et mydriatiques en association
-S01BB01 Hydrocortisone et mydriatiques
+S01BA15 Acétonide de fluocinolone (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>S01B Anti-inflammatoires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S01BB Corticoïdes et mydriatiques en association</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S01BB01 Hydrocortisone et mydriatiques
 S01BB02 Prednisolone et mydriatiques
 S01BB03 Fluorométholone et mydriatiques
-S01BB04 Bétaméthasone et mydriatiques
-S01BC Anti-inflammatoires non stéroïdiens
-S01BC01 Indométacine
+S01BB04 Bétaméthasone et mydriatiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>S01B Anti-inflammatoires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S01BC Anti-inflammatoires non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S01BC01 Indométacine
 S01BC02 Oxyphenbutazone (en)
 S01BC03 Diclofénac
 S01BC04 Flurbiprofène
@@ -645,34 +871,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>S01C Anti-inflammatoires et anti-infectieux en association</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>S01CA Corticoïdes et anti-infectieux en association
-S01CA01 Dexaméthasone et anti-infectieux
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S01CA Corticoïdes et anti-infectieux en association</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S01CA01 Dexaméthasone et anti-infectieux
 S01CA02 Prednisolone et anti-infectieux
 S01CA03 Hydrocortisone et anti-infectieux
 S01CA04 Fluocortolone (en) et anti-infectieux
@@ -682,54 +913,161 @@
 S01CA08 Méthylprednisolone et anti-infectieux
 S01CA09 Chloroprednisone (en) et anti-infectieux
 S01CA10 Fluocinolone acétonide (en) et anti-infectieux
-S01CA11 Clobétasone (en) et anti-infectieux
-S01CB Corticoïdes, anti-infectieux et mydriatiques en association
-S01CB01 Dexaméthasone
+S01CA11 Clobétasone (en) et anti-infectieux</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>S01C Anti-inflammatoires et anti-infectieux en association</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S01CB Corticoïdes, anti-infectieux et mydriatiques en association</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>S01CB01 Dexaméthasone
 S01CB02 Prednisolone
 S01CB03 Hydrocortisone
 S01CB04 Bétaméthasone
-S01CB05 Fluorométholone
-S01CC Anti-inflammatoires et anti-infectieux en association
-S01CC01 Diclofénac et anti-infectieux
+S01CB05 Fluorométholone</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>S01C Anti-inflammatoires et anti-infectieux en association</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S01CC Anti-inflammatoires et anti-infectieux en association</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>S01CC01 Diclofénac et anti-infectieux
 S01CC02 Indométacine et anti-infectieux</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>S01E Antiglaucomateux et myotiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>S01EA Sympathomimétiques antiglaucomateux
-S01EA01 Épinéphrine
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S01EA Sympathomimétiques antiglaucomateux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>S01EA01 Épinéphrine
 S01EA02 Dipivéphrine (en)
 S01EA03 Apraclonidine
 S01EA04 Clonidine
 S01EA05 Brimonidine
-S01EA51 Épinéphrine, associations
-S01EB Parasympathomimétiques
-S01EB01 Pilocarpine
+S01EA51 Épinéphrine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>S01E Antiglaucomateux et myotiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S01EB Parasympathomimétiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S01EB01 Pilocarpine
 S01EB02 Carbachol
 S01EB03 Écothiopate (en)
 S01EB04 Démécarium (en)
@@ -740,16 +1078,84 @@
 S01EB09 Acétylcholine
 S01EB10 Paraoxon
 S01EB51 Pilocarpine, associations
-S01EB58 Acéclidine, associations
-S01EC Inhibiteurs de l'anhydrase carbonique
-S01EC01 Acétazolamide
+S01EB58 Acéclidine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>S01E Antiglaucomateux et myotiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S01EC Inhibiteurs de l'anhydrase carbonique</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S01EC01 Acétazolamide
 S01EC02 Diclofénamide (en)
 S01EC03 Dorzolamide
 S01EC04 Brinzolamide
 S01EC05 Méthazolamide (en)
-S01EC54 Brinzolamide, associations
-S01ED Bêtabloquants
-S01ED01 Timolol
+S01EC54 Brinzolamide, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>S01E Antiglaucomateux et myotiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S01ED Bêtabloquants</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S01ED01 Timolol
 S01ED02 Bétaxolol
 S01ED03 Lévobunolol
 S01ED04 Métipranolol (en)
@@ -758,57 +1164,164 @@
 S01ED51 Timolol, associations
 S01ED52 Bêtaxolol, associations
 S01ED54 Métipranolol, associations
-S01ED55 Cartéolol, associations
-S01EE Analogues des prostaglandines
-S01EE01 Latanoprost
+S01ED55 Cartéolol, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>S01E Antiglaucomateux et myotiques</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S01EE Analogues des prostaglandines</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>S01EE01 Latanoprost
 S01EE02 Unoprostone (en)
 S01EE03 Bimatoprost
 S01EE04 Travoprost (en)
-S01EE05 Tafluprost
-S01EX Autres antiglaucomateux
-S01EX01 Guanéthidine (en)
+S01EE05 Tafluprost</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>S01E Antiglaucomateux et myotiques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S01EX Autres antiglaucomateux</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S01EX01 Guanéthidine (en)
 S01EX02 Dapiprazole (en)
 S01EX05 Nétarsudil</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>S01F Mydriatiques et cycloplégiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S01FA Anticholinergiques
-S01FA01 Atropine
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S01FA Anticholinergiques</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>S01FA01 Atropine
 S01FA02 Scopolamine
 S01FA03 Méthylscopolamine (en)
 S01FA04 Cyclopentolate
 S01FA05 Homatropine (en)
 S01FA06 Tropicamide
 S01FA54 Cyclopentolate, associations
-S01FA56 Tropicamide, associations
-S01FB Sympathomimétiques, antiglaucomateux exclus
-S01FB01 Phényléphrine
+S01FA56 Tropicamide, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>S01F Mydriatiques et cycloplégiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S01FB Sympathomimétiques, antiglaucomateux exclus</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>S01FB01 Phényléphrine
 S01FB02 Éphédrine
 S01FB03 Ibopamine (en)
 S01FB51 Phényléphrine et kétorolac
@@ -817,34 +1330,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>S01G Décongestionnants et anti-allergiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>S01GA Sympathomimétiques utilisés comme décongestionnants
-S01GA01 Naphazoline
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S01GA Sympathomimétiques utilisés comme décongestionnants</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S01GA01 Naphazoline
 S01GA02 Tétryzoline (en)
 S01GA03 Xylométazoline
 S01GA04 Oxymétazoline
@@ -854,9 +1372,43 @@
 S01GA52 Tétryzoline, associations
 S01GA53 Xylométazoline, associations
 S01GA55 Phényléphrine, associations
-S01GA56 Oxédrine, associations
-S01GX Autres anti-allergiques
-S01GX01 Acide cromoglicique
+S01GA56 Oxédrine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>S01G Décongestionnants et anti-allergiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S01GX Autres anti-allergiques</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S01GX01 Acide cromoglicique
 S01GX02 Lévocabastine
 S01GX03 Acide spaglumique
 S01GX04 NédocromilNédocromil
@@ -871,34 +1423,39 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>S01H Anesthésiques locaux</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>S01HA Anesthésiques locaux
-S01HA01 Cocaïne
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S01HA Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>S01HA01 Cocaïne
 S01HA02 Oxybuprocaïne (en)
 S01HA03 Tétracaïne
 S01HA04 Proxymétacaïne
@@ -909,104 +1466,187 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>S01J Médicaments de diagnostic</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>S01JA Colorants
-S01JA01 Fluorescéine
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S01JA Colorants</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>S01JA01 Fluorescéine
 S01JA02 Rose Bengale sodique
-S01JA51 Fluorescéine, associations
-S01JX Autres médicaments de diagnostic en ophtalmologie
-Classe vide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+S01JA51 Fluorescéine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>S01J Médicaments de diagnostic</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S01JX Autres médicaments de diagnostic en ophtalmologie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>S01K Adjuvants en chirurgie ophtalmique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>S01KA Médicaments viscoélastiques
-S01KA01 Acide hyaluronique
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>S01KA Médicaments viscoélastiques</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>S01KA01 Acide hyaluronique
 S01KA02 Hypromellose
-S01KA51 Acide hyaluronique, associations
-S01KX Autres adjuvants en chirurgie ophtalmique
-S01KX01 Chymotrypsine</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+S01KA51 Acide hyaluronique, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>S01K Adjuvants en chirurgie ophtalmique</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S01KX Autres adjuvants en chirurgie ophtalmique</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>S01KX01 Chymotrypsine</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>S01L Agents contre les désordres vasculaires oculaires</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>S01LA Agents antinéovascularisation
-S01LA01 Vertéporfine (en)
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>S01LA Agents antinéovascularisation</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>S01LA01 Vertéporfine (en)
 S01LA02 Anécortave (en)
 S01LA03 Pegaptanib
 S01LA04 Ranibizumab (en)
@@ -1014,34 +1654,39 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>S01X Autres médicaments ophtalmologiques</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S01XA Autres médicaments ophtalmologiques
-S01XA01 Gaïazulène
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S01XA Autres médicaments ophtalmologiques</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>S01XA01 Gaïazulène
 S01XA02 Rétinol
 S01XA03 Chlorure de sodium, hypertonique
 S01XA04 Iodure de potassium
